--- a/results/mp/logistic/corona/confidence/126/topk-0.35/avg_0.002_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/126/topk-0.35/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="91">
   <si>
     <t>anchor score</t>
   </si>
@@ -49,39 +49,45 @@
     <t>kill</t>
   </si>
   <si>
+    <t>died</t>
+  </si>
+  <si>
+    <t>fraud</t>
+  </si>
+  <si>
     <t>crude</t>
   </si>
   <si>
-    <t>died</t>
-  </si>
-  <si>
-    <t>warning</t>
-  </si>
-  <si>
-    <t>fraud</t>
+    <t>war</t>
+  </si>
+  <si>
+    <t>collapse</t>
+  </si>
+  <si>
+    <t>sc</t>
+  </si>
+  <si>
+    <t>die</t>
+  </si>
+  <si>
+    <t>drop</t>
+  </si>
+  <si>
+    <t>panic</t>
   </si>
   <si>
     <t>fears</t>
   </si>
   <si>
-    <t>sc</t>
-  </si>
-  <si>
-    <t>die</t>
-  </si>
-  <si>
-    <t>war</t>
-  </si>
-  <si>
-    <t>panic</t>
-  </si>
-  <si>
-    <t>drop</t>
-  </si>
-  <si>
     <t>emergency</t>
   </si>
   <si>
+    <t>avoid</t>
+  </si>
+  <si>
+    <t>lower</t>
+  </si>
+  <si>
     <t>low</t>
   </si>
   <si>
@@ -91,10 +97,13 @@
     <t>stop</t>
   </si>
   <si>
+    <t>demand</t>
+  </si>
+  <si>
     <t>of</t>
   </si>
   <si>
-    <t>19</t>
+    <t>a</t>
   </si>
   <si>
     <t>co</t>
@@ -106,148 +115,178 @@
     <t>corona</t>
   </si>
   <si>
+    <t>.</t>
+  </si>
+  <si>
     <t>to</t>
   </si>
   <si>
-    <t>.</t>
-  </si>
-  <si>
     <t>negative</t>
   </si>
   <si>
+    <t>free</t>
+  </si>
+  <si>
     <t>love</t>
   </si>
   <si>
     <t>best</t>
   </si>
   <si>
-    <t>free</t>
+    <t>friend</t>
+  </si>
+  <si>
+    <t>happy</t>
   </si>
   <si>
     <t>great</t>
   </si>
   <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>amazing</t>
+  </si>
+  <si>
     <t>hand</t>
   </si>
   <si>
     <t>won</t>
   </si>
   <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>strong</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
     <t>positive</t>
   </si>
   <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>safe</t>
+    <t>interesting</t>
   </si>
   <si>
     <t>thanks</t>
   </si>
   <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>ensure</t>
+  </si>
+  <si>
+    <t>relief</t>
+  </si>
+  <si>
     <t>join</t>
   </si>
   <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>special</t>
+    <t>gt</t>
   </si>
   <si>
     <t>like</t>
   </si>
   <si>
-    <t>friends</t>
-  </si>
-  <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>strong</t>
+    <t>ready</t>
+  </si>
+  <si>
+    <t>save</t>
+  </si>
+  <si>
+    <t>please</t>
   </si>
   <si>
     <t>well</t>
   </si>
   <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>save</t>
-  </si>
-  <si>
     <t>hope</t>
   </si>
   <si>
     <t>help</t>
   </si>
   <si>
+    <t>dear</t>
+  </si>
+  <si>
+    <t>giving</t>
+  </si>
+  <si>
     <t>share</t>
   </si>
   <si>
-    <t>giving</t>
-  </si>
-  <si>
-    <t>yes</t>
-  </si>
-  <si>
-    <t>gt</t>
-  </si>
-  <si>
     <t>care</t>
   </si>
   <si>
-    <t>growth</t>
-  </si>
-  <si>
-    <t>ready</t>
-  </si>
-  <si>
-    <t>important</t>
+    <t>alert</t>
+  </si>
+  <si>
+    <t>safety</t>
   </si>
   <si>
     <t>protect</t>
   </si>
   <si>
-    <t>safety</t>
-  </si>
-  <si>
     <t>increase</t>
   </si>
   <si>
+    <t>helping</t>
+  </si>
+  <si>
+    <t>sure</t>
+  </si>
+  <si>
+    <t>our</t>
+  </si>
+  <si>
+    <t>your</t>
+  </si>
+  <si>
     <t>you</t>
   </si>
   <si>
+    <t>grocery</t>
+  </si>
+  <si>
     <t>!</t>
   </si>
   <si>
     <t>for</t>
   </si>
   <si>
+    <t>?</t>
+  </si>
+  <si>
     <t>and</t>
+  </si>
+  <si>
+    <t>,</t>
   </si>
 </sst>
 </file>
@@ -605,7 +644,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q50"/>
+  <dimension ref="A1:Q60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -613,10 +652,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="J1" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -695,16 +734,16 @@
         <v>7</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="K3">
-        <v>0.9347826086956522</v>
+        <v>0.9416666666666667</v>
       </c>
       <c r="L3">
-        <v>43</v>
+        <v>113</v>
       </c>
       <c r="M3">
-        <v>43</v>
+        <v>113</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -716,7 +755,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -724,13 +763,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.726027397260274</v>
+        <v>0.7157534246575342</v>
       </c>
       <c r="C4">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="D4">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -742,19 +781,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="K4">
-        <v>0.9322033898305084</v>
+        <v>0.9347826086956522</v>
       </c>
       <c r="L4">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="M4">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -766,7 +805,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -795,16 +834,16 @@
         <v>6</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="K5">
-        <v>0.9083333333333333</v>
+        <v>0.9322033898305084</v>
       </c>
       <c r="L5">
-        <v>109</v>
+        <v>55</v>
       </c>
       <c r="M5">
-        <v>109</v>
+        <v>55</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -816,7 +855,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -824,13 +863,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.6470588235294118</v>
+        <v>0.6538461538461539</v>
       </c>
       <c r="C6">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D6">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -842,19 +881,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="K6">
-        <v>0.8839285714285714</v>
+        <v>0.8947368421052632</v>
       </c>
       <c r="L6">
-        <v>99</v>
+        <v>17</v>
       </c>
       <c r="M6">
-        <v>99</v>
+        <v>17</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -866,7 +905,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>13</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -874,13 +913,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.6153846153846154</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="C7">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D7">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -892,19 +931,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="K7">
-        <v>0.8381201044386423</v>
+        <v>0.8846153846153846</v>
       </c>
       <c r="L7">
-        <v>321</v>
+        <v>23</v>
       </c>
       <c r="M7">
-        <v>321</v>
+        <v>23</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -916,7 +955,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>62</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -924,49 +963,49 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.52</v>
+        <v>0.5</v>
       </c>
       <c r="C8">
+        <v>17</v>
+      </c>
+      <c r="D8">
+        <v>17</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8" t="b">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>17</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K8">
+        <v>0.8839285714285714</v>
+      </c>
+      <c r="L8">
+        <v>99</v>
+      </c>
+      <c r="M8">
+        <v>99</v>
+      </c>
+      <c r="N8">
+        <v>1</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q8">
         <v>13</v>
-      </c>
-      <c r="D8">
-        <v>13</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8" t="b">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>12</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="K8">
-        <v>0.8205128205128205</v>
-      </c>
-      <c r="L8">
-        <v>32</v>
-      </c>
-      <c r="M8">
-        <v>32</v>
-      </c>
-      <c r="N8">
-        <v>1</v>
-      </c>
-      <c r="O8">
-        <v>0</v>
-      </c>
-      <c r="P8" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q8">
-        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -974,7 +1013,7 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.5</v>
+        <v>0.4736842105263158</v>
       </c>
       <c r="C9">
         <v>18</v>
@@ -992,19 +1031,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="K9">
-        <v>0.8103448275862069</v>
+        <v>0.8611111111111112</v>
       </c>
       <c r="L9">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="M9">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1016,7 +1055,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1024,13 +1063,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.4705882352941176</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="C10">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="D10">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1042,19 +1081,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="K10">
-        <v>0.8046875</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="L10">
-        <v>103</v>
+        <v>15</v>
       </c>
       <c r="M10">
-        <v>103</v>
+        <v>15</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1066,7 +1105,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>25</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1074,13 +1113,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.4338624338624338</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="C11">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D11">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1092,19 +1131,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="K11">
-        <v>0.8018867924528302</v>
+        <v>0.814621409921671</v>
       </c>
       <c r="L11">
-        <v>85</v>
+        <v>312</v>
       </c>
       <c r="M11">
-        <v>85</v>
+        <v>312</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1116,7 +1155,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>21</v>
+        <v>71</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1145,16 +1184,16 @@
         <v>21</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="K12">
-        <v>0.795774647887324</v>
+        <v>0.7948717948717948</v>
       </c>
       <c r="L12">
-        <v>113</v>
+        <v>31</v>
       </c>
       <c r="M12">
-        <v>113</v>
+        <v>31</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1166,7 +1205,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>29</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1174,13 +1213,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.4210526315789473</v>
+        <v>0.3728813559322034</v>
       </c>
       <c r="C13">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="D13">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1192,19 +1231,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="K13">
-        <v>0.7926829268292683</v>
+        <v>0.7872340425531915</v>
       </c>
       <c r="L13">
-        <v>65</v>
+        <v>37</v>
       </c>
       <c r="M13">
-        <v>65</v>
+        <v>37</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1216,7 +1255,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>17</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1224,13 +1263,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.3410852713178295</v>
+        <v>0.3604651162790697</v>
       </c>
       <c r="C14">
-        <v>176</v>
+        <v>186</v>
       </c>
       <c r="D14">
-        <v>176</v>
+        <v>186</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1242,19 +1281,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>340</v>
+        <v>330</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="K14">
-        <v>0.7906976744186046</v>
+        <v>0.78125</v>
       </c>
       <c r="L14">
-        <v>34</v>
+        <v>100</v>
       </c>
       <c r="M14">
-        <v>34</v>
+        <v>100</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1266,7 +1305,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>9</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1274,13 +1313,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.288135593220339</v>
+        <v>0.3137254901960784</v>
       </c>
       <c r="C15">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D15">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1292,19 +1331,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="K15">
-        <v>0.7777777777777778</v>
+        <v>0.7746478873239436</v>
       </c>
       <c r="L15">
-        <v>28</v>
+        <v>110</v>
       </c>
       <c r="M15">
-        <v>28</v>
+        <v>110</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1316,7 +1355,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>8</v>
+        <v>32</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1324,38 +1363,38 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.2266666666666667</v>
+        <v>0.28</v>
       </c>
       <c r="C16">
+        <v>21</v>
+      </c>
+      <c r="D16">
+        <v>21</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16" t="b">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>54</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="K16">
+        <v>0.7727272727272727</v>
+      </c>
+      <c r="L16">
         <v>17</v>
       </c>
-      <c r="D16">
+      <c r="M16">
         <v>17</v>
       </c>
-      <c r="E16">
-        <v>0</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16" t="b">
-        <v>0</v>
-      </c>
-      <c r="H16">
-        <v>58</v>
-      </c>
-      <c r="J16" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="K16">
-        <v>0.7446808510638298</v>
-      </c>
-      <c r="L16">
-        <v>35</v>
-      </c>
-      <c r="M16">
-        <v>35</v>
-      </c>
       <c r="N16">
         <v>1</v>
       </c>
@@ -1366,7 +1405,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1374,13 +1413,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.2147651006711409</v>
+        <v>0.2727272727272727</v>
       </c>
       <c r="C17">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="D17">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1392,19 +1431,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>117</v>
+        <v>40</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="K17">
-        <v>0.7375</v>
+        <v>0.7727272727272727</v>
       </c>
       <c r="L17">
-        <v>118</v>
+        <v>17</v>
       </c>
       <c r="M17">
-        <v>118</v>
+        <v>17</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1416,7 +1455,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>42</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1424,13 +1463,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.1444444444444444</v>
+        <v>0.2321428571428572</v>
       </c>
       <c r="C18">
-        <v>52</v>
+        <v>13</v>
       </c>
       <c r="D18">
-        <v>52</v>
+        <v>13</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1442,19 +1481,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>308</v>
+        <v>43</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="K18">
-        <v>0.7307692307692307</v>
+        <v>0.76875</v>
       </c>
       <c r="L18">
-        <v>19</v>
+        <v>123</v>
       </c>
       <c r="M18">
-        <v>19</v>
+        <v>123</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1466,7 +1505,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>7</v>
+        <v>37</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1474,13 +1513,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.07936507936507936</v>
+        <v>0.2080536912751678</v>
       </c>
       <c r="C19">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="D19">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1492,19 +1531,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>232</v>
+        <v>118</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="K19">
-        <v>0.7291666666666666</v>
+        <v>0.7641509433962265</v>
       </c>
       <c r="L19">
-        <v>35</v>
+        <v>81</v>
       </c>
       <c r="M19">
-        <v>35</v>
+        <v>81</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1516,7 +1555,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>13</v>
+        <v>25</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1524,37 +1563,37 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.007169970476592155</v>
+        <v>0.1444444444444444</v>
       </c>
       <c r="C20">
-        <v>17</v>
+        <v>52</v>
       </c>
       <c r="D20">
-        <v>25</v>
+        <v>52</v>
       </c>
       <c r="E20">
-        <v>0.32</v>
+        <v>0</v>
       </c>
       <c r="F20">
-        <v>0.6799999999999999</v>
+        <v>1</v>
       </c>
       <c r="G20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H20">
-        <v>2354</v>
+        <v>308</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="K20">
-        <v>0.6666666666666666</v>
+        <v>0.7586206896551724</v>
       </c>
       <c r="L20">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="M20">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1566,7 +1605,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1574,37 +1613,37 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.006077606358111267</v>
+        <v>0.1031746031746032</v>
       </c>
       <c r="C21">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="D21">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="E21">
-        <v>0.24</v>
+        <v>0</v>
       </c>
       <c r="F21">
-        <v>0.76</v>
+        <v>1</v>
       </c>
       <c r="G21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H21">
-        <v>2126</v>
+        <v>226</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="K21">
-        <v>0.66</v>
+        <v>0.7575757575757576</v>
       </c>
       <c r="L21">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="M21">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1616,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>17</v>
+        <v>8</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1624,37 +1663,37 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.005169628432956382</v>
+        <v>0.05093833780160858</v>
       </c>
       <c r="C22">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D22">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="E22">
-        <v>0.43</v>
+        <v>0</v>
       </c>
       <c r="F22">
-        <v>0.5700000000000001</v>
+        <v>1</v>
       </c>
       <c r="G22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H22">
-        <v>3079</v>
+        <v>354</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="K22">
-        <v>0.6388888888888888</v>
+        <v>0.7560975609756098</v>
       </c>
       <c r="L22">
-        <v>23</v>
+        <v>62</v>
       </c>
       <c r="M22">
-        <v>23</v>
+        <v>62</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1666,7 +1705,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1674,37 +1713,37 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.004859086491739553</v>
+        <v>0.008006742520016857</v>
       </c>
       <c r="C23">
+        <v>19</v>
+      </c>
+      <c r="D23">
         <v>25</v>
       </c>
-      <c r="D23">
-        <v>45</v>
-      </c>
       <c r="E23">
-        <v>0.44</v>
+        <v>0.24</v>
       </c>
       <c r="F23">
-        <v>0.5600000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="G23" t="b">
         <v>1</v>
       </c>
       <c r="H23">
-        <v>5120</v>
+        <v>2354</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="K23">
-        <v>0.638235294117647</v>
+        <v>0.75</v>
       </c>
       <c r="L23">
-        <v>217</v>
+        <v>21</v>
       </c>
       <c r="M23">
-        <v>217</v>
+        <v>21</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1716,7 +1755,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>123</v>
+        <v>7</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1724,37 +1763,37 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.004076513013483851</v>
+        <v>0.006956521739130435</v>
       </c>
       <c r="C24">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D24">
         <v>25</v>
       </c>
       <c r="E24">
-        <v>0.48</v>
+        <v>0.36</v>
       </c>
       <c r="F24">
-        <v>0.52</v>
+        <v>0.64</v>
       </c>
       <c r="G24" t="b">
         <v>1</v>
       </c>
       <c r="H24">
-        <v>3176</v>
+        <v>2284</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="K24">
-        <v>0.6071428571428571</v>
+        <v>0.7222222222222222</v>
       </c>
       <c r="L24">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="M24">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1766,7 +1805,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1774,37 +1813,37 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.003485130111524164</v>
+        <v>0.006776379477250726</v>
       </c>
       <c r="C25">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="D25">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="E25">
-        <v>0.62</v>
+        <v>0.28</v>
       </c>
       <c r="F25">
-        <v>0.38</v>
+        <v>0.72</v>
       </c>
       <c r="G25" t="b">
         <v>1</v>
       </c>
       <c r="H25">
-        <v>4289</v>
+        <v>3078</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="K25">
-        <v>0.6060606060606061</v>
+        <v>0.6984126984126984</v>
       </c>
       <c r="L25">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="M25">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1816,7 +1855,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1824,37 +1863,37 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.003229061553985873</v>
+        <v>0.00506033476060724</v>
       </c>
       <c r="C26">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="D26">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E26">
-        <v>0.72</v>
+        <v>0.51</v>
       </c>
       <c r="F26">
-        <v>0.28</v>
+        <v>0.49</v>
       </c>
       <c r="G26" t="b">
         <v>1</v>
       </c>
       <c r="H26">
-        <v>4939</v>
+        <v>5112</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="K26">
-        <v>0.5925925925925926</v>
+        <v>0.6875</v>
       </c>
       <c r="L26">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="M26">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1866,21 +1905,45 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="27" spans="1:17">
+      <c r="A27" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B27">
+        <v>0.004703668861712135</v>
+      </c>
+      <c r="C27">
+        <v>15</v>
+      </c>
+      <c r="D27">
+        <v>27</v>
+      </c>
+      <c r="E27">
+        <v>0.44</v>
+      </c>
+      <c r="F27">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="G27" t="b">
+        <v>1</v>
+      </c>
+      <c r="H27">
+        <v>3174</v>
+      </c>
       <c r="J27" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="K27">
-        <v>0.5909090909090909</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L27">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M27">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1896,17 +1959,41 @@
       </c>
     </row>
     <row r="28" spans="1:17">
+      <c r="A28" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B28">
+        <v>0.004430124848973017</v>
+      </c>
+      <c r="C28">
+        <v>22</v>
+      </c>
+      <c r="D28">
+        <v>52</v>
+      </c>
+      <c r="E28">
+        <v>0.58</v>
+      </c>
+      <c r="F28">
+        <v>0.42</v>
+      </c>
+      <c r="G28" t="b">
+        <v>1</v>
+      </c>
+      <c r="H28">
+        <v>4944</v>
+      </c>
       <c r="J28" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="K28">
-        <v>0.5851063829787234</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L28">
-        <v>55</v>
+        <v>16</v>
       </c>
       <c r="M28">
-        <v>55</v>
+        <v>16</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1918,21 +2005,45 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>39</v>
+        <v>8</v>
       </c>
     </row>
     <row r="29" spans="1:17">
+      <c r="A29" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B29">
+        <v>0.003491620111731843</v>
+      </c>
+      <c r="C29">
+        <v>15</v>
+      </c>
+      <c r="D29">
+        <v>47</v>
+      </c>
+      <c r="E29">
+        <v>0.68</v>
+      </c>
+      <c r="F29">
+        <v>0.32</v>
+      </c>
+      <c r="G29" t="b">
+        <v>1</v>
+      </c>
+      <c r="H29">
+        <v>4281</v>
+      </c>
       <c r="J29" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="K29">
-        <v>0.5815899581589958</v>
+        <v>0.66</v>
       </c>
       <c r="L29">
-        <v>139</v>
+        <v>33</v>
       </c>
       <c r="M29">
-        <v>139</v>
+        <v>33</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1944,21 +2055,21 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>100</v>
+        <v>17</v>
       </c>
     </row>
     <row r="30" spans="1:17">
       <c r="J30" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="K30">
-        <v>0.5714285714285714</v>
+        <v>0.6511627906976745</v>
       </c>
       <c r="L30">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="M30">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1975,16 +2086,16 @@
     </row>
     <row r="31" spans="1:17">
       <c r="J31" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="K31">
-        <v>0.5692307692307692</v>
+        <v>0.65</v>
       </c>
       <c r="L31">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="M31">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1996,47 +2107,47 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>28</v>
+        <v>14</v>
       </c>
     </row>
     <row r="32" spans="1:17">
       <c r="J32" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="K32">
-        <v>0.5612244897959183</v>
+        <v>0.6470588235294118</v>
       </c>
       <c r="L32">
-        <v>165</v>
+        <v>220</v>
       </c>
       <c r="M32">
-        <v>166</v>
+        <v>220</v>
       </c>
       <c r="N32">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O32">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q32">
-        <v>129</v>
+        <v>120</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="K33">
-        <v>0.5571428571428572</v>
+        <v>0.6428571428571429</v>
       </c>
       <c r="L33">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="M33">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -2048,21 +2159,21 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>31</v>
+        <v>10</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="K34">
-        <v>0.4848484848484849</v>
+        <v>0.6285714285714286</v>
       </c>
       <c r="L34">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="M34">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -2074,21 +2185,21 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="K35">
-        <v>0.4814814814814815</v>
+        <v>0.5774058577405857</v>
       </c>
       <c r="L35">
-        <v>13</v>
+        <v>138</v>
       </c>
       <c r="M35">
-        <v>13</v>
+        <v>138</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -2100,21 +2211,21 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>14</v>
+        <v>101</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="K36">
-        <v>0.475</v>
+        <v>0.5531914893617021</v>
       </c>
       <c r="L36">
-        <v>19</v>
+        <v>52</v>
       </c>
       <c r="M36">
-        <v>19</v>
+        <v>52</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -2126,21 +2237,21 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>21</v>
+        <v>42</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="K37">
-        <v>0.4719101123595505</v>
+        <v>0.5230769230769231</v>
       </c>
       <c r="L37">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="M37">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -2152,21 +2263,21 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>47</v>
+        <v>31</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="K38">
-        <v>0.4642857142857143</v>
+        <v>0.5220338983050847</v>
       </c>
       <c r="L38">
-        <v>13</v>
+        <v>154</v>
       </c>
       <c r="M38">
-        <v>13</v>
+        <v>154</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -2178,12 +2289,12 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>15</v>
+        <v>141</v>
       </c>
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="K39">
         <v>0.4642857142857143</v>
@@ -2209,16 +2320,16 @@
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="K40">
-        <v>0.2888888888888889</v>
+        <v>0.4545454545454545</v>
       </c>
       <c r="L40">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="M40">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -2230,21 +2341,21 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>32</v>
+        <v>18</v>
       </c>
     </row>
     <row r="41" spans="10:17">
       <c r="J41" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="K41">
-        <v>0.273972602739726</v>
+        <v>0.4428571428571428</v>
       </c>
       <c r="L41">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="M41">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -2256,21 +2367,21 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>53</v>
+        <v>39</v>
       </c>
     </row>
     <row r="42" spans="10:17">
       <c r="J42" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="K42">
-        <v>0.2549019607843137</v>
+        <v>0.4382022471910113</v>
       </c>
       <c r="L42">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="M42">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -2282,21 +2393,21 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>38</v>
+        <v>50</v>
       </c>
     </row>
     <row r="43" spans="10:17">
       <c r="J43" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="K43">
-        <v>0.2051282051282051</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="L43">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="M43">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -2308,189 +2419,449 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>62</v>
+        <v>24</v>
       </c>
     </row>
     <row r="44" spans="10:17">
       <c r="J44" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="K44">
-        <v>0.01751459549624687</v>
+        <v>0.3725490196078431</v>
       </c>
       <c r="L44">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="M44">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="N44">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O44">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P44" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q44">
-        <v>1178</v>
+        <v>32</v>
       </c>
     </row>
     <row r="45" spans="10:17">
       <c r="J45" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="K45">
-        <v>0.01318458417849899</v>
+        <v>0.3150684931506849</v>
       </c>
       <c r="L45">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="M45">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="N45">
-        <v>0.8100000000000001</v>
+        <v>1</v>
       </c>
       <c r="O45">
-        <v>0.1899999999999999</v>
+        <v>0</v>
       </c>
       <c r="P45" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q45">
-        <v>973</v>
+        <v>50</v>
       </c>
     </row>
     <row r="46" spans="10:17">
       <c r="J46" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="K46">
-        <v>0.01006289308176101</v>
+        <v>0.282051282051282</v>
       </c>
       <c r="L46">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="M46">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="N46">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="O46">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="P46" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q46">
-        <v>1574</v>
+        <v>56</v>
       </c>
     </row>
     <row r="47" spans="10:17">
       <c r="J47" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="K47">
-        <v>0.00975609756097561</v>
+        <v>0.2372881355932203</v>
       </c>
       <c r="L47">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="M47">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="N47">
-        <v>0.76</v>
+        <v>1</v>
       </c>
       <c r="O47">
-        <v>0.24</v>
+        <v>0</v>
       </c>
       <c r="P47" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q47">
-        <v>2639</v>
+        <v>45</v>
       </c>
     </row>
     <row r="48" spans="10:17">
       <c r="J48" s="1" t="s">
-        <v>31</v>
+        <v>81</v>
       </c>
       <c r="K48">
-        <v>0.00823293172690763</v>
+        <v>0.234375</v>
       </c>
       <c r="L48">
-        <v>41</v>
+        <v>15</v>
       </c>
       <c r="M48">
-        <v>57</v>
+        <v>15</v>
       </c>
       <c r="N48">
-        <v>0.72</v>
+        <v>1</v>
       </c>
       <c r="O48">
-        <v>0.28</v>
+        <v>0</v>
       </c>
       <c r="P48" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q48">
-        <v>4939</v>
+        <v>49</v>
       </c>
     </row>
     <row r="49" spans="10:17">
       <c r="J49" s="1" t="s">
-        <v>30</v>
+        <v>82</v>
       </c>
       <c r="K49">
-        <v>0.005564572223510317</v>
+        <v>0.03110047846889952</v>
       </c>
       <c r="L49">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="M49">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="N49">
-        <v>0.62</v>
+        <v>1</v>
       </c>
       <c r="O49">
-        <v>0.38</v>
+        <v>0</v>
       </c>
       <c r="P49" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q49">
-        <v>4289</v>
+        <v>405</v>
       </c>
     </row>
     <row r="50" spans="10:17">
       <c r="J50" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="K50">
+        <v>0.02742230347349177</v>
+      </c>
+      <c r="L50">
+        <v>15</v>
+      </c>
+      <c r="M50">
+        <v>15</v>
+      </c>
+      <c r="N50">
+        <v>1</v>
+      </c>
+      <c r="O50">
+        <v>0</v>
+      </c>
+      <c r="P50" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q50">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="51" spans="10:17">
+      <c r="J51" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="K51">
+        <v>0.02341137123745819</v>
+      </c>
+      <c r="L51">
         <v>28</v>
       </c>
-      <c r="K50">
-        <v>0.003891050583657588</v>
-      </c>
-      <c r="L50">
+      <c r="M51">
+        <v>32</v>
+      </c>
+      <c r="N51">
+        <v>0.88</v>
+      </c>
+      <c r="O51">
+        <v>0.12</v>
+      </c>
+      <c r="P51" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q51">
+        <v>1168</v>
+      </c>
+    </row>
+    <row r="52" spans="10:17">
+      <c r="J52" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="K52">
+        <v>0.0144284128745838</v>
+      </c>
+      <c r="L52">
+        <v>13</v>
+      </c>
+      <c r="M52">
+        <v>13</v>
+      </c>
+      <c r="N52">
+        <v>1</v>
+      </c>
+      <c r="O52">
+        <v>0</v>
+      </c>
+      <c r="P52" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q52">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="53" spans="10:17">
+      <c r="J53" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="K53">
+        <v>0.01417004048582996</v>
+      </c>
+      <c r="L53">
+        <v>14</v>
+      </c>
+      <c r="M53">
+        <v>15</v>
+      </c>
+      <c r="N53">
+        <v>0.93</v>
+      </c>
+      <c r="O53">
+        <v>0.06999999999999995</v>
+      </c>
+      <c r="P53" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q53">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="54" spans="10:17">
+      <c r="J54" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="K54">
+        <v>0.01259445843828715</v>
+      </c>
+      <c r="L54">
         <v>20</v>
       </c>
-      <c r="M50">
-        <v>45</v>
-      </c>
-      <c r="N50">
-        <v>0.44</v>
-      </c>
-      <c r="O50">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="P50" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q50">
-        <v>5120</v>
+      <c r="M54">
+        <v>26</v>
+      </c>
+      <c r="N54">
+        <v>0.77</v>
+      </c>
+      <c r="O54">
+        <v>0.23</v>
+      </c>
+      <c r="P54" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q54">
+        <v>1568</v>
+      </c>
+    </row>
+    <row r="55" spans="10:17">
+      <c r="J55" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="K55">
+        <v>0.01045150501672241</v>
+      </c>
+      <c r="L55">
+        <v>25</v>
+      </c>
+      <c r="M55">
+        <v>27</v>
+      </c>
+      <c r="N55">
+        <v>0.93</v>
+      </c>
+      <c r="O55">
+        <v>0.06999999999999995</v>
+      </c>
+      <c r="P55" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q55">
+        <v>2367</v>
+      </c>
+    </row>
+    <row r="56" spans="10:17">
+      <c r="J56" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="K56">
+        <v>0.008633633633633633</v>
+      </c>
+      <c r="L56">
+        <v>23</v>
+      </c>
+      <c r="M56">
+        <v>32</v>
+      </c>
+      <c r="N56">
+        <v>0.72</v>
+      </c>
+      <c r="O56">
+        <v>0.28</v>
+      </c>
+      <c r="P56" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q56">
+        <v>2641</v>
+      </c>
+    </row>
+    <row r="57" spans="10:17">
+      <c r="J57" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K57">
+        <v>0.00741942963134709</v>
+      </c>
+      <c r="L57">
+        <v>32</v>
+      </c>
+      <c r="M57">
+        <v>47</v>
+      </c>
+      <c r="N57">
+        <v>0.68</v>
+      </c>
+      <c r="O57">
+        <v>0.32</v>
+      </c>
+      <c r="P57" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q57">
+        <v>4281</v>
+      </c>
+    </row>
+    <row r="58" spans="10:17">
+      <c r="J58" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="K58">
+        <v>0.007398273736128237</v>
+      </c>
+      <c r="L58">
+        <v>18</v>
+      </c>
+      <c r="M58">
+        <v>30</v>
+      </c>
+      <c r="N58">
+        <v>0.6</v>
+      </c>
+      <c r="O58">
+        <v>0.4</v>
+      </c>
+      <c r="P58" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q58">
+        <v>2415</v>
+      </c>
+    </row>
+    <row r="59" spans="10:17">
+      <c r="J59" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K59">
+        <v>0.006031363088057901</v>
+      </c>
+      <c r="L59">
+        <v>30</v>
+      </c>
+      <c r="M59">
+        <v>52</v>
+      </c>
+      <c r="N59">
+        <v>0.58</v>
+      </c>
+      <c r="O59">
+        <v>0.42</v>
+      </c>
+      <c r="P59" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q59">
+        <v>4944</v>
+      </c>
+    </row>
+    <row r="60" spans="10:17">
+      <c r="J60" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K60">
+        <v>0.005253940455341506</v>
+      </c>
+      <c r="L60">
+        <v>27</v>
+      </c>
+      <c r="M60">
+        <v>53</v>
+      </c>
+      <c r="N60">
+        <v>0.51</v>
+      </c>
+      <c r="O60">
+        <v>0.49</v>
+      </c>
+      <c r="P60" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q60">
+        <v>5112</v>
       </c>
     </row>
   </sheetData>
